--- a/data/raw_data/Stations_Table.xlsx
+++ b/data/raw_data/Stations_Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maedward\Desktop\elsavadorowls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maedward\Desktop\elsavadorowls\TableExports\database_07_30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1463,7 +1463,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -1496,8 +1496,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1812,7 +1812,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="19.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
